--- a/presence_absence_report_2024.xlsx
+++ b/presence_absence_report_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\RBVReport-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LandryJes\Documents\RBVReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7285D45F-A470-4341-9F75-1F7A424FDA4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B52627E-B9BE-4BFF-B6BF-C73E12A197C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{F2BBEE9A-7C13-4250-BCB1-992A9DAE4722}"/>
+    <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{F2BBEE9A-7C13-4250-BCB1-992A9DAE4722}"/>
   </bookViews>
   <sheets>
     <sheet name="presence_absence_report" sheetId="4" r:id="rId1"/>
@@ -1385,7 +1385,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698E6241-1314-48CF-A550-1FA7718B108C}">
   <dimension ref="B2:AL65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>

--- a/presence_absence_report_2024.xlsx
+++ b/presence_absence_report_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LandryJes\Documents\RBVReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B52627E-B9BE-4BFF-B6BF-C73E12A197C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E91AC4-7CB5-4D23-9B56-6528A5D95608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{F2BBEE9A-7C13-4250-BCB1-992A9DAE4722}"/>
   </bookViews>
@@ -965,7 +965,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="90"/>
@@ -1002,6 +1002,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1386,7 +1389,7 @@
   <dimension ref="B2:AL65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44"/>
+      <selection activeCell="AF77" sqref="AF77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8552,7 +8555,7 @@
       <c r="Q65" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="R65" s="3">
+      <c r="R65" s="22">
         <v>6</v>
       </c>
       <c r="S65" s="12" t="s">

--- a/presence_absence_report_2024.xlsx
+++ b/presence_absence_report_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LandryJes\Documents\RBVReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E91AC4-7CB5-4D23-9B56-6528A5D95608}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951811A7-A65E-46EC-A321-1773D481181A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{F2BBEE9A-7C13-4250-BCB1-992A9DAE4722}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2157" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2158" uniqueCount="115">
   <si>
     <t>Station ID</t>
   </si>
@@ -290,15 +290,9 @@
     <t>Railroad Brook (BOLTON)</t>
   </si>
   <si>
-    <t>Hedge Brook  (EAST HADDAM)</t>
-  </si>
-  <si>
     <t>Safstrom Brook (EAST HAMPTON)</t>
   </si>
   <si>
-    <t>Ransom Brook  (SALEM)</t>
-  </si>
-  <si>
     <t>Ransom (East) Brook  (SALEM)</t>
   </si>
   <si>
@@ -314,9 +308,6 @@
     <t>Flat Brook (MARLBOROUGH)</t>
   </si>
   <si>
-    <t>Fraser Brook  (SALEM)</t>
-  </si>
-  <si>
     <t>Frasier Brook  (SALEM)</t>
   </si>
   <si>
@@ -341,9 +332,6 @@
     <t>Mill Brook (WOODSTOCK)</t>
   </si>
   <si>
-    <t>North Branch Pootatuck River Headwaters (NEWTOWN)</t>
-  </si>
-  <si>
     <t>South Brook (WOODBURY)</t>
   </si>
   <si>
@@ -356,9 +344,6 @@
     <t>Blackmore Brook (THOMPSON)</t>
   </si>
   <si>
-    <t>NNT Eightmile at Pleasant Valley Preserve (LYME)</t>
-  </si>
-  <si>
     <t>NNT to (West Branch) Eightmile River (EAST HADDAM)</t>
   </si>
   <si>
@@ -369,6 +354,33 @@
   </si>
   <si>
     <t>TLVG/VCC/CTDEEP</t>
+  </si>
+  <si>
+    <t>*NNT Eightmile at Pleasant Valley Preserve (LYME)</t>
+  </si>
+  <si>
+    <t>*Muddy Brook  (EAST HADDAM)</t>
+  </si>
+  <si>
+    <t>*Hedge Brook  (EAST HADDAM)</t>
+  </si>
+  <si>
+    <t>*North Branch Pootatuck River Headwaters (NEWTOWN)</t>
+  </si>
+  <si>
+    <t>*Burnham Brook  (EAST HADDAM)</t>
+  </si>
+  <si>
+    <t>*Fraser Brook  (SALEM)</t>
+  </si>
+  <si>
+    <t>*Harris Brook  (SALEM)</t>
+  </si>
+  <si>
+    <t>*Ransom Brook  (SALEM)</t>
+  </si>
+  <si>
+    <t>*Data collected outside the sampling date range specified in the QAPP (September 1st-November 30th).</t>
   </si>
 </sst>
 </file>
@@ -965,14 +977,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1004,6 +1010,17 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1386,10 +1403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{698E6241-1314-48CF-A550-1FA7718B108C}">
-  <dimension ref="B2:AL65"/>
+  <dimension ref="B2:AL67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF77" sqref="AF77"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,216 +1422,220 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:38" ht="127.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="1" t="s">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="T2" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="U2" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="V2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="W2" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Y2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="Z2" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AA2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AB2" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AC2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AD2" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AE2" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AF2" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="AG2" s="1" t="s">
+      <c r="AG2" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AH2" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="AI2" s="1" t="s">
+      <c r="AI2" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="AJ2" s="1" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="AK2" s="1" t="s">
+      <c r="AK2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="AL2" s="8"/>
+      <c r="AL2" s="6"/>
     </row>
     <row r="3" spans="2:38" ht="24" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="4">
         <v>1</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="4">
         <v>2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>3</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>4</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="4">
         <v>7</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="4">
         <v>4</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="6" t="s">
+      <c r="V3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="W3" s="6">
+      <c r="W3" s="4">
         <v>7</v>
       </c>
-      <c r="X3" s="6" t="s">
+      <c r="X3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Y3" s="6" t="s">
+      <c r="Y3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="Z3" s="6">
+      <c r="Z3" s="4">
         <v>15</v>
       </c>
-      <c r="AA3" s="6">
+      <c r="AA3" s="4">
         <v>16</v>
       </c>
-      <c r="AB3" s="6">
+      <c r="AB3" s="4">
         <v>17</v>
       </c>
-      <c r="AC3" s="6">
+      <c r="AC3" s="4">
         <v>18</v>
       </c>
-      <c r="AD3" s="6">
+      <c r="AD3" s="4">
         <v>19</v>
       </c>
-      <c r="AE3" s="6">
+      <c r="AE3" s="4">
         <v>20</v>
       </c>
-      <c r="AF3" s="6">
+      <c r="AF3" s="4">
         <v>21</v>
       </c>
-      <c r="AG3" s="6">
+      <c r="AG3" s="4">
         <v>23</v>
       </c>
-      <c r="AH3" s="6">
+      <c r="AH3" s="4">
         <v>24</v>
       </c>
-      <c r="AI3" s="6">
+      <c r="AI3" s="4">
         <v>25</v>
       </c>
-      <c r="AJ3" s="6">
+      <c r="AJ3" s="4">
         <v>26</v>
       </c>
-      <c r="AK3" s="7">
+      <c r="AK3" s="5">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C4">
@@ -1623,26 +1644,26 @@
       <c r="D4" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>45606</v>
       </c>
       <c r="F4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J4" t="s">
         <v>32</v>
       </c>
       <c r="K4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L4" t="s">
         <v>32</v>
@@ -1651,10 +1672,10 @@
         <v>32</v>
       </c>
       <c r="N4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P4" t="s">
         <v>32</v>
@@ -1662,7 +1683,7 @@
       <c r="Q4" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="1">
         <v>6</v>
       </c>
       <c r="S4" t="s">
@@ -1684,28 +1705,28 @@
         <v>32</v>
       </c>
       <c r="Y4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s">
         <v>32</v>
@@ -1714,68 +1735,68 @@
         <v>32</v>
       </c>
       <c r="AI4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ4" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK4" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK4" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>58</v>
       </c>
       <c r="C5">
         <v>14445</v>
       </c>
       <c r="D5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="10">
+        <v>91</v>
+      </c>
+      <c r="E5" s="8">
         <v>45586</v>
       </c>
       <c r="F5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
       <c r="H5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M5" t="s">
         <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O5" t="s">
         <v>32</v>
       </c>
       <c r="P5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q5" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="1">
         <v>4</v>
       </c>
       <c r="S5" t="s">
@@ -1791,37 +1812,37 @@
         <v>32</v>
       </c>
       <c r="W5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD5" t="s">
         <v>32</v>
       </c>
       <c r="AE5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF5" t="s">
         <v>32</v>
       </c>
       <c r="AG5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH5" t="s">
         <v>32</v>
@@ -1830,17 +1851,17 @@
         <v>32</v>
       </c>
       <c r="AJ5" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK5" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="7" t="s">
         <v>59</v>
       </c>
       <c r="C6">
@@ -1849,46 +1870,46 @@
       <c r="D6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <v>45556</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J6" t="s">
         <v>32</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M6" t="s">
         <v>32</v>
       </c>
       <c r="N6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q6" t="s">
-        <v>97</v>
-      </c>
-      <c r="R6" s="3">
+        <v>94</v>
+      </c>
+      <c r="R6" s="1">
         <v>3</v>
       </c>
       <c r="S6" t="s">
@@ -1898,10 +1919,10 @@
         <v>32</v>
       </c>
       <c r="U6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W6" t="s">
         <v>32</v>
@@ -1910,31 +1931,31 @@
         <v>32</v>
       </c>
       <c r="Y6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF6" t="s">
         <v>32</v>
       </c>
       <c r="AG6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH6" t="s">
         <v>32</v>
@@ -1945,15 +1966,15 @@
       <c r="AJ6" t="s">
         <v>32</v>
       </c>
-      <c r="AK6" s="11" t="s">
-        <v>97</v>
+      <c r="AK6" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="7" t="s">
         <v>60</v>
       </c>
       <c r="C7">
@@ -1962,17 +1983,17 @@
       <c r="D7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>45588</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I7" t="s">
         <v>32</v>
@@ -1981,27 +2002,27 @@
         <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
         <v>32</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q7" t="s">
-        <v>97</v>
-      </c>
-      <c r="R7" s="3">
+        <v>94</v>
+      </c>
+      <c r="R7" s="1">
         <v>3</v>
       </c>
       <c r="S7" t="s">
@@ -2020,31 +2041,31 @@
         <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG7" t="s">
         <v>32</v>
@@ -2058,15 +2079,15 @@
       <c r="AJ7" t="s">
         <v>32</v>
       </c>
-      <c r="AK7" s="11" t="s">
-        <v>97</v>
+      <c r="AK7" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="7" t="s">
         <v>61</v>
       </c>
       <c r="C8">
@@ -2075,46 +2096,46 @@
       <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>45616</v>
       </c>
       <c r="F8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L8" t="s">
         <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q8" t="s">
-        <v>97</v>
-      </c>
-      <c r="R8" s="3">
+        <v>94</v>
+      </c>
+      <c r="R8" s="1">
         <v>3</v>
       </c>
       <c r="S8" t="s">
@@ -2127,59 +2148,59 @@
         <v>32</v>
       </c>
       <c r="V8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s">
         <v>32</v>
       </c>
       <c r="AH8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ8" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK8" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK8" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL8" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C9">
@@ -2188,11 +2209,11 @@
       <c r="D9" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>45583</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
         <v>32</v>
@@ -2201,33 +2222,33 @@
         <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
         <v>32</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M9" t="s">
         <v>32</v>
       </c>
       <c r="N9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q9" t="s">
-        <v>97</v>
-      </c>
-      <c r="R9" s="3">
+        <v>94</v>
+      </c>
+      <c r="R9" s="1">
         <v>4</v>
       </c>
       <c r="S9" t="s">
@@ -2246,34 +2267,34 @@
         <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF9" t="s">
         <v>32</v>
       </c>
       <c r="AG9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH9" t="s">
         <v>32</v>
@@ -2282,36 +2303,36 @@
         <v>32</v>
       </c>
       <c r="AJ9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK9" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK9" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C10">
         <v>15249</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E10" s="10">
+        <v>105</v>
+      </c>
+      <c r="E10" s="8">
         <v>45560</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
         <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I10" t="s">
         <v>32</v>
@@ -2320,7 +2341,7 @@
         <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -2329,18 +2350,18 @@
         <v>32</v>
       </c>
       <c r="N10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O10" t="s">
         <v>32</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q10" t="s">
-        <v>97</v>
-      </c>
-      <c r="R10" s="3">
+        <v>94</v>
+      </c>
+      <c r="R10" s="1">
         <v>6</v>
       </c>
       <c r="S10" t="s">
@@ -2359,34 +2380,34 @@
         <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD10" t="s">
         <v>32</v>
       </c>
       <c r="AE10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF10" t="s">
         <v>32</v>
       </c>
       <c r="AG10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH10" t="s">
         <v>32</v>
@@ -2397,43 +2418,43 @@
       <c r="AJ10" t="s">
         <v>32</v>
       </c>
-      <c r="AK10" s="11" t="s">
-        <v>97</v>
+      <c r="AK10" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C11">
         <v>15280</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E11" s="10">
+        <v>92</v>
+      </c>
+      <c r="E11" s="8">
         <v>45591</v>
       </c>
       <c r="F11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G11" t="s">
         <v>32</v>
       </c>
       <c r="H11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J11" t="s">
         <v>32</v>
       </c>
       <c r="K11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L11" t="s">
         <v>32</v>
@@ -2442,18 +2463,18 @@
         <v>32</v>
       </c>
       <c r="N11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O11" t="s">
         <v>32</v>
       </c>
       <c r="P11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q11" t="s">
-        <v>97</v>
-      </c>
-      <c r="R11" s="3">
+        <v>94</v>
+      </c>
+      <c r="R11" s="1">
         <v>5</v>
       </c>
       <c r="S11" t="s">
@@ -2472,28 +2493,28 @@
         <v>32</v>
       </c>
       <c r="X11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z11" t="s">
         <v>32</v>
       </c>
       <c r="AA11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s">
         <v>32</v>
@@ -2502,23 +2523,23 @@
         <v>32</v>
       </c>
       <c r="AH11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI11" t="s">
         <v>32</v>
       </c>
       <c r="AJ11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK11" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK11" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>64</v>
       </c>
       <c r="C12">
@@ -2527,17 +2548,17 @@
       <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>45583</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G12" t="s">
         <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I12" t="s">
         <v>32</v>
@@ -2546,27 +2567,27 @@
         <v>32</v>
       </c>
       <c r="K12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L12" t="s">
         <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q12" t="s">
-        <v>97</v>
-      </c>
-      <c r="R12" s="3">
+        <v>94</v>
+      </c>
+      <c r="R12" s="1">
         <v>4</v>
       </c>
       <c r="S12" t="s">
@@ -2579,7 +2600,7 @@
         <v>32</v>
       </c>
       <c r="V12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W12" t="s">
         <v>32</v>
@@ -2588,50 +2609,50 @@
         <v>32</v>
       </c>
       <c r="Y12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG12" t="s">
         <v>32</v>
       </c>
       <c r="AH12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK12" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="7" t="s">
         <v>65</v>
       </c>
       <c r="C13">
@@ -2640,46 +2661,46 @@
       <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>45576</v>
       </c>
       <c r="F13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
         <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s">
         <v>32</v>
       </c>
       <c r="K13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P13" t="s">
         <v>32</v>
       </c>
       <c r="Q13" t="s">
-        <v>97</v>
-      </c>
-      <c r="R13" s="3">
+        <v>94</v>
+      </c>
+      <c r="R13" s="1">
         <v>3</v>
       </c>
       <c r="S13" t="s">
@@ -2701,50 +2722,50 @@
         <v>32</v>
       </c>
       <c r="Y13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI13" t="s">
         <v>32</v>
       </c>
       <c r="AJ13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK13" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK13" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>106</v>
       </c>
       <c r="C14">
@@ -2753,14 +2774,14 @@
       <c r="D14" t="s">
         <v>52</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>45394</v>
       </c>
       <c r="F14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -2772,40 +2793,40 @@
         <v>32</v>
       </c>
       <c r="K14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O14" t="s">
         <v>32</v>
       </c>
       <c r="P14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q14" t="s">
-        <v>97</v>
-      </c>
-      <c r="R14" s="3">
+        <v>94</v>
+      </c>
+      <c r="R14" s="1">
         <v>4</v>
       </c>
       <c r="S14" t="s">
         <v>32</v>
       </c>
       <c r="T14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U14" t="s">
         <v>32</v>
       </c>
       <c r="V14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W14" t="s">
         <v>32</v>
@@ -2814,98 +2835,98 @@
         <v>32</v>
       </c>
       <c r="Y14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG14" t="s">
         <v>32</v>
       </c>
       <c r="AH14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK14" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK14" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>66</v>
       </c>
       <c r="C15">
         <v>15370</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
-      </c>
-      <c r="E15" s="10">
+        <v>91</v>
+      </c>
+      <c r="E15" s="8">
         <v>45588</v>
       </c>
       <c r="F15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G15" t="s">
         <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O15" t="s">
         <v>32</v>
       </c>
       <c r="P15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q15" t="s">
-        <v>97</v>
-      </c>
-      <c r="R15" s="3">
+        <v>94</v>
+      </c>
+      <c r="R15" s="1">
         <v>2</v>
       </c>
       <c r="S15" t="s">
@@ -2918,107 +2939,107 @@
         <v>32</v>
       </c>
       <c r="V15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK15" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK15" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL15" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>66</v>
       </c>
       <c r="C16">
         <v>15370</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
-      </c>
-      <c r="E16" s="10">
+        <v>93</v>
+      </c>
+      <c r="E16" s="8">
         <v>45618</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
         <v>32</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
       </c>
       <c r="M16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O16" t="s">
         <v>32</v>
       </c>
       <c r="P16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q16" t="s">
-        <v>97</v>
-      </c>
-      <c r="R16" s="3">
+        <v>94</v>
+      </c>
+      <c r="R16" s="1">
         <v>4</v>
       </c>
       <c r="S16" t="s">
@@ -3031,16 +3052,16 @@
         <v>32</v>
       </c>
       <c r="V16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z16" t="s">
         <v>32</v>
@@ -3052,86 +3073,86 @@
         <v>32</v>
       </c>
       <c r="AC16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG16" t="s">
         <v>32</v>
       </c>
       <c r="AH16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ16" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK16" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK16" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL16" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C17">
         <v>15375</v>
       </c>
       <c r="D17" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="10">
+        <v>91</v>
+      </c>
+      <c r="E17" s="8">
         <v>45587</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M17" t="s">
         <v>32</v>
       </c>
       <c r="N17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q17" t="s">
         <v>32</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="1">
         <v>3</v>
       </c>
       <c r="S17" t="s">
@@ -3147,104 +3168,104 @@
         <v>32</v>
       </c>
       <c r="W17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD17" t="s">
         <v>32</v>
       </c>
       <c r="AE17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI17" t="s">
         <v>32</v>
       </c>
       <c r="AJ17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK17" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK17" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C18">
         <v>15764</v>
       </c>
       <c r="D18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="10">
+        <v>103</v>
+      </c>
+      <c r="E18" s="8">
         <v>45558</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M18" t="s">
         <v>32</v>
       </c>
       <c r="N18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q18" t="s">
-        <v>97</v>
-      </c>
-      <c r="R18" s="3">
+        <v>94</v>
+      </c>
+      <c r="R18" s="1">
         <v>2</v>
       </c>
       <c r="S18" t="s">
@@ -3254,110 +3275,110 @@
         <v>32</v>
       </c>
       <c r="U18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD18" t="s">
         <v>32</v>
       </c>
       <c r="AE18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI18" t="s">
         <v>32</v>
       </c>
       <c r="AJ18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK18" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK18" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL18" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="7" t="s">
         <v>68</v>
       </c>
       <c r="C19">
         <v>15764</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
-      </c>
-      <c r="E19" s="10">
+        <v>104</v>
+      </c>
+      <c r="E19" s="8">
         <v>45558</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
       </c>
       <c r="H19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J19" t="s">
         <v>32</v>
       </c>
       <c r="K19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O19" t="s">
         <v>32</v>
       </c>
       <c r="P19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q19" t="s">
-        <v>97</v>
-      </c>
-      <c r="R19" s="3">
+        <v>94</v>
+      </c>
+      <c r="R19" s="1">
         <v>3</v>
       </c>
       <c r="S19" t="s">
@@ -3373,37 +3394,37 @@
         <v>32</v>
       </c>
       <c r="W19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD19" t="s">
         <v>32</v>
       </c>
       <c r="AE19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH19" t="s">
         <v>32</v>
@@ -3412,39 +3433,39 @@
         <v>32</v>
       </c>
       <c r="AJ19" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK19" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK19" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL19" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C20">
         <v>15839</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
-      </c>
-      <c r="E20" s="10">
+        <v>92</v>
+      </c>
+      <c r="E20" s="8">
         <v>45578</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
         <v>32</v>
       </c>
       <c r="H20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J20" t="s">
         <v>32</v>
@@ -3456,21 +3477,21 @@
         <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q20" t="s">
-        <v>97</v>
-      </c>
-      <c r="R20" s="3">
+        <v>94</v>
+      </c>
+      <c r="R20" s="1">
         <v>4</v>
       </c>
       <c r="S20" t="s">
@@ -3486,31 +3507,31 @@
         <v>32</v>
       </c>
       <c r="W20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF20" t="s">
         <v>32</v>
@@ -3519,23 +3540,23 @@
         <v>32</v>
       </c>
       <c r="AH20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ20" t="s">
         <v>32</v>
       </c>
-      <c r="AK20" s="11" t="s">
-        <v>97</v>
+      <c r="AK20" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="14" t="s">
         <v>69</v>
       </c>
       <c r="C21">
@@ -3544,11 +3565,11 @@
       <c r="D21" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <v>45564</v>
       </c>
       <c r="F21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
         <v>32</v>
@@ -3557,13 +3578,13 @@
         <v>32</v>
       </c>
       <c r="I21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J21" t="s">
         <v>32</v>
       </c>
       <c r="K21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L21" t="s">
         <v>32</v>
@@ -3572,18 +3593,18 @@
         <v>32</v>
       </c>
       <c r="N21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q21" t="s">
-        <v>97</v>
-      </c>
-      <c r="R21" s="3">
+        <v>94</v>
+      </c>
+      <c r="R21" s="1">
         <v>5</v>
       </c>
       <c r="S21" t="s">
@@ -3605,163 +3626,163 @@
         <v>32</v>
       </c>
       <c r="Y21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG21" t="s">
         <v>32</v>
       </c>
       <c r="AH21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI21" t="s">
         <v>32</v>
       </c>
       <c r="AJ21" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK21" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK21" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="21">
         <v>16123</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="22">
         <v>45394</v>
       </c>
-      <c r="F22" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I22" t="s">
-        <v>32</v>
-      </c>
-      <c r="J22" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" t="s">
-        <v>97</v>
-      </c>
-      <c r="L22" t="s">
-        <v>32</v>
-      </c>
-      <c r="M22" t="s">
-        <v>97</v>
-      </c>
-      <c r="N22" t="s">
-        <v>97</v>
-      </c>
-      <c r="O22" t="s">
-        <v>97</v>
-      </c>
-      <c r="P22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>97</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="F22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="J22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="M22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="N22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="O22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="R22" s="23">
         <v>4</v>
       </c>
-      <c r="S22" t="s">
-        <v>32</v>
-      </c>
-      <c r="T22" t="s">
-        <v>97</v>
-      </c>
-      <c r="U22" t="s">
-        <v>97</v>
-      </c>
-      <c r="V22" t="s">
-        <v>97</v>
-      </c>
-      <c r="W22" t="s">
-        <v>32</v>
-      </c>
-      <c r="X22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK22" s="11" t="s">
-        <v>97</v>
+      <c r="S22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="T22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="U22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="V22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="W22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="X22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK22" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C23">
@@ -3770,46 +3791,46 @@
       <c r="D23" t="s">
         <v>56</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="8">
         <v>45542</v>
       </c>
       <c r="F23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H23" t="s">
         <v>32</v>
       </c>
       <c r="I23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J23" t="s">
         <v>32</v>
       </c>
       <c r="K23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M23" t="s">
         <v>32</v>
       </c>
       <c r="N23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P23" t="s">
         <v>32</v>
       </c>
       <c r="Q23" t="s">
-        <v>97</v>
-      </c>
-      <c r="R23" s="3">
+        <v>94</v>
+      </c>
+      <c r="R23" s="1">
         <v>4</v>
       </c>
       <c r="S23" t="s">
@@ -3825,56 +3846,56 @@
         <v>32</v>
       </c>
       <c r="W23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X23" t="s">
         <v>32</v>
       </c>
       <c r="Y23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG23" t="s">
         <v>32</v>
       </c>
       <c r="AH23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI23" t="s">
         <v>32</v>
       </c>
       <c r="AJ23" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK23" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK23" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL23" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="7" t="s">
         <v>71</v>
       </c>
       <c r="C24">
@@ -3883,46 +3904,46 @@
       <c r="D24" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <v>45589</v>
       </c>
       <c r="F24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G24" t="s">
         <v>32</v>
       </c>
       <c r="H24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q24" t="s">
-        <v>97</v>
-      </c>
-      <c r="R24" s="3">
+        <v>94</v>
+      </c>
+      <c r="R24" s="1">
         <v>1</v>
       </c>
       <c r="S24" t="s">
@@ -3935,59 +3956,59 @@
         <v>32</v>
       </c>
       <c r="V24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ24" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK24" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK24" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL24" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>72</v>
       </c>
       <c r="C25">
@@ -3996,26 +4017,26 @@
       <c r="D25" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="8">
         <v>45564</v>
       </c>
       <c r="F25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
       </c>
       <c r="H25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J25" t="s">
         <v>32</v>
       </c>
       <c r="K25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L25" t="s">
         <v>32</v>
@@ -4024,18 +4045,18 @@
         <v>32</v>
       </c>
       <c r="N25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P25" t="s">
         <v>32</v>
       </c>
       <c r="Q25" t="s">
-        <v>97</v>
-      </c>
-      <c r="R25" s="3">
+        <v>94</v>
+      </c>
+      <c r="R25" s="1">
         <v>5</v>
       </c>
       <c r="S25" t="s">
@@ -4057,25 +4078,25 @@
         <v>32</v>
       </c>
       <c r="Y25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF25" t="s">
         <v>32</v>
@@ -4090,65 +4111,65 @@
         <v>32</v>
       </c>
       <c r="AJ25" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK25" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK25" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL25" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>63</v>
       </c>
       <c r="C26">
         <v>16420</v>
       </c>
       <c r="D26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E26" s="10">
+        <v>92</v>
+      </c>
+      <c r="E26" s="8">
         <v>45578</v>
       </c>
       <c r="F26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G26" t="s">
         <v>32</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M26" t="s">
         <v>32</v>
       </c>
       <c r="N26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q26" t="s">
-        <v>97</v>
-      </c>
-      <c r="R26" s="3">
+        <v>94</v>
+      </c>
+      <c r="R26" s="1">
         <v>2</v>
       </c>
       <c r="S26" t="s">
@@ -4158,62 +4179,62 @@
         <v>32</v>
       </c>
       <c r="U26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z26" t="s">
         <v>32</v>
       </c>
       <c r="AA26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI26" t="s">
         <v>32</v>
       </c>
       <c r="AJ26" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK26" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK26" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL26" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="7" t="s">
         <v>73</v>
       </c>
       <c r="C27">
@@ -4222,46 +4243,46 @@
       <c r="D27" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>45556</v>
       </c>
       <c r="F27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
       </c>
       <c r="H27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J27" t="s">
         <v>32</v>
       </c>
       <c r="K27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M27" t="s">
         <v>32</v>
       </c>
       <c r="N27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q27" t="s">
-        <v>97</v>
-      </c>
-      <c r="R27" s="3">
+        <v>94</v>
+      </c>
+      <c r="R27" s="1">
         <v>3</v>
       </c>
       <c r="S27" t="s">
@@ -4274,59 +4295,59 @@
         <v>32</v>
       </c>
       <c r="V27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W27" t="s">
         <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD27" t="s">
         <v>32</v>
       </c>
       <c r="AE27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF27" t="s">
         <v>32</v>
       </c>
       <c r="AG27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI27" t="s">
         <v>32</v>
       </c>
       <c r="AJ27" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK27" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK27" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL27" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C28">
@@ -4335,38 +4356,38 @@
       <c r="D28" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="8">
         <v>45578</v>
       </c>
       <c r="F28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J28" t="s">
         <v>32</v>
       </c>
       <c r="K28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M28" t="s">
         <v>32</v>
       </c>
       <c r="N28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P28" t="s">
         <v>32</v>
@@ -4374,7 +4395,7 @@
       <c r="Q28" t="s">
         <v>32</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="1">
         <v>5</v>
       </c>
       <c r="S28" t="s">
@@ -4387,7 +4408,7 @@
         <v>32</v>
       </c>
       <c r="V28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W28" t="s">
         <v>32</v>
@@ -4396,50 +4417,50 @@
         <v>32</v>
       </c>
       <c r="Y28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD28" t="s">
         <v>32</v>
       </c>
       <c r="AE28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG28" t="s">
         <v>32</v>
       </c>
       <c r="AH28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI28" t="s">
         <v>32</v>
       </c>
       <c r="AJ28" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK28" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK28" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="7" t="s">
         <v>75</v>
       </c>
       <c r="C29">
@@ -4448,17 +4469,17 @@
       <c r="D29" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <v>45549</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I29" t="s">
         <v>32</v>
@@ -4467,27 +4488,27 @@
         <v>32</v>
       </c>
       <c r="K29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L29" t="s">
         <v>32</v>
       </c>
       <c r="M29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q29" t="s">
-        <v>97</v>
-      </c>
-      <c r="R29" s="3">
+        <v>94</v>
+      </c>
+      <c r="R29" s="1">
         <v>3</v>
       </c>
       <c r="S29" t="s">
@@ -4500,59 +4521,59 @@
         <v>32</v>
       </c>
       <c r="V29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X29" t="s">
         <v>32</v>
       </c>
       <c r="Y29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF29" t="s">
         <v>32</v>
       </c>
       <c r="AG29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI29" t="s">
         <v>32</v>
       </c>
       <c r="AJ29" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK29" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK29" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL29" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>76</v>
       </c>
       <c r="C30">
@@ -4561,14 +4582,14 @@
       <c r="D30" t="s">
         <v>54</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="8">
         <v>45584</v>
       </c>
       <c r="F30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H30" t="s">
         <v>32</v>
@@ -4580,7 +4601,7 @@
         <v>32</v>
       </c>
       <c r="K30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
@@ -4589,7 +4610,7 @@
         <v>32</v>
       </c>
       <c r="N30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O30" t="s">
         <v>32</v>
@@ -4598,9 +4619,9 @@
         <v>32</v>
       </c>
       <c r="Q30" t="s">
-        <v>97</v>
-      </c>
-      <c r="R30" s="3">
+        <v>94</v>
+      </c>
+      <c r="R30" s="1">
         <v>9</v>
       </c>
       <c r="S30" t="s">
@@ -4622,25 +4643,25 @@
         <v>32</v>
       </c>
       <c r="Y30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF30" t="s">
         <v>32</v>
@@ -4655,17 +4676,17 @@
         <v>32</v>
       </c>
       <c r="AJ30" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK30" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK30" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="7" t="s">
         <v>34</v>
       </c>
       <c r="C31">
@@ -4674,46 +4695,46 @@
       <c r="D31" t="s">
         <v>55</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="8">
         <v>45594</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J31" t="s">
         <v>32</v>
       </c>
       <c r="K31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s">
         <v>32</v>
       </c>
       <c r="M31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P31" t="s">
         <v>32</v>
       </c>
       <c r="Q31" t="s">
-        <v>97</v>
-      </c>
-      <c r="R31" s="3">
+        <v>94</v>
+      </c>
+      <c r="R31" s="1">
         <v>3</v>
       </c>
       <c r="S31" t="s">
@@ -4723,10 +4744,10 @@
         <v>32</v>
       </c>
       <c r="U31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W31" t="s">
         <v>32</v>
@@ -4735,50 +4756,50 @@
         <v>32</v>
       </c>
       <c r="Y31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z31" t="s">
         <v>32</v>
       </c>
       <c r="AA31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF31" t="s">
         <v>32</v>
       </c>
       <c r="AG31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ31" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK31" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK31" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="7" t="s">
         <v>77</v>
       </c>
       <c r="C32">
@@ -4787,46 +4808,46 @@
       <c r="D32" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="8">
         <v>45595</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G32" t="s">
         <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J32" t="s">
         <v>32</v>
       </c>
       <c r="K32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q32" t="s">
-        <v>97</v>
-      </c>
-      <c r="R32" s="3">
+        <v>94</v>
+      </c>
+      <c r="R32" s="1">
         <v>2</v>
       </c>
       <c r="S32" t="s">
@@ -4836,10 +4857,10 @@
         <v>32</v>
       </c>
       <c r="U32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W32" t="s">
         <v>32</v>
@@ -4848,50 +4869,50 @@
         <v>32</v>
       </c>
       <c r="Y32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG32" t="s">
         <v>32</v>
       </c>
       <c r="AH32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ32" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK32" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK32" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="14" t="s">
         <v>78</v>
       </c>
       <c r="C33">
@@ -4900,46 +4921,46 @@
       <c r="D33" t="s">
         <v>50</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="8">
         <v>45595</v>
       </c>
       <c r="F33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G33" t="s">
         <v>32</v>
       </c>
       <c r="H33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J33" t="s">
         <v>32</v>
       </c>
       <c r="K33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L33" t="s">
         <v>32</v>
       </c>
       <c r="M33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N33" t="s">
         <v>32</v>
       </c>
       <c r="O33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q33" t="s">
-        <v>97</v>
-      </c>
-      <c r="R33" s="3">
+        <v>94</v>
+      </c>
+      <c r="R33" s="1">
         <v>5</v>
       </c>
       <c r="S33" t="s">
@@ -4964,22 +4985,22 @@
         <v>32</v>
       </c>
       <c r="Z33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF33" t="s">
         <v>32</v>
@@ -4988,23 +5009,23 @@
         <v>32</v>
       </c>
       <c r="AH33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI33" t="s">
         <v>32</v>
       </c>
       <c r="AJ33" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK33" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK33" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL33" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="7" t="s">
         <v>79</v>
       </c>
       <c r="C34">
@@ -5013,46 +5034,46 @@
       <c r="D34" t="s">
         <v>56</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="8">
         <v>45570</v>
       </c>
       <c r="F34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J34" t="s">
         <v>32</v>
       </c>
       <c r="K34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q34" t="s">
-        <v>97</v>
-      </c>
-      <c r="R34" s="3">
+        <v>94</v>
+      </c>
+      <c r="R34" s="1">
         <v>1</v>
       </c>
       <c r="S34" t="s">
@@ -5077,25 +5098,25 @@
         <v>32</v>
       </c>
       <c r="Z34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD34" t="s">
         <v>32</v>
       </c>
       <c r="AE34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG34" t="s">
         <v>32</v>
@@ -5104,68 +5125,68 @@
         <v>32</v>
       </c>
       <c r="AI34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ34" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK34" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK34" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="7" t="s">
         <v>80</v>
       </c>
       <c r="C35">
         <v>18141</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="10">
+        <v>92</v>
+      </c>
+      <c r="E35" s="8">
         <v>45600</v>
       </c>
       <c r="F35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
       </c>
       <c r="H35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J35" t="s">
         <v>32</v>
       </c>
       <c r="K35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L35" t="s">
         <v>32</v>
       </c>
       <c r="M35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q35" t="s">
-        <v>97</v>
-      </c>
-      <c r="R35" s="3">
+        <v>94</v>
+      </c>
+      <c r="R35" s="1">
         <v>3</v>
       </c>
       <c r="S35" t="s">
@@ -5181,13 +5202,13 @@
         <v>32</v>
       </c>
       <c r="W35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z35" t="s">
         <v>32</v>
@@ -5199,13 +5220,13 @@
         <v>32</v>
       </c>
       <c r="AC35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF35" t="s">
         <v>32</v>
@@ -5217,20 +5238,20 @@
         <v>32</v>
       </c>
       <c r="AI35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ35" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK35" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK35" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL35" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="14" t="s">
         <v>81</v>
       </c>
       <c r="C36">
@@ -5239,11 +5260,11 @@
       <c r="D36" t="s">
         <v>50</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="8">
         <v>45581</v>
       </c>
       <c r="F36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G36" t="s">
         <v>32</v>
@@ -5252,13 +5273,13 @@
         <v>32</v>
       </c>
       <c r="I36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J36" t="s">
         <v>32</v>
       </c>
       <c r="K36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L36" t="s">
         <v>32</v>
@@ -5267,18 +5288,18 @@
         <v>32</v>
       </c>
       <c r="N36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q36" t="s">
-        <v>97</v>
-      </c>
-      <c r="R36" s="3">
+        <v>94</v>
+      </c>
+      <c r="R36" s="1">
         <v>6</v>
       </c>
       <c r="S36" t="s">
@@ -5288,7 +5309,7 @@
         <v>32</v>
       </c>
       <c r="U36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V36" t="s">
         <v>32</v>
@@ -5297,28 +5318,28 @@
         <v>32</v>
       </c>
       <c r="X36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF36" t="s">
         <v>32</v>
@@ -5333,17 +5354,17 @@
         <v>32</v>
       </c>
       <c r="AJ36" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK36" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK36" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL36" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C37">
@@ -5352,46 +5373,46 @@
       <c r="D37" t="s">
         <v>55</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <v>45593</v>
       </c>
       <c r="F37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J37" t="s">
         <v>32</v>
       </c>
       <c r="K37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L37" t="s">
         <v>32</v>
       </c>
       <c r="M37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q37" t="s">
-        <v>97</v>
-      </c>
-      <c r="R37" s="3">
+        <v>94</v>
+      </c>
+      <c r="R37" s="1">
         <v>2</v>
       </c>
       <c r="S37" t="s">
@@ -5404,7 +5425,7 @@
         <v>32</v>
       </c>
       <c r="V37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W37" t="s">
         <v>32</v>
@@ -5419,44 +5440,44 @@
         <v>32</v>
       </c>
       <c r="AA37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG37" t="s">
         <v>32</v>
       </c>
       <c r="AH37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ37" t="s">
         <v>32</v>
       </c>
-      <c r="AK37" s="11" t="s">
-        <v>97</v>
+      <c r="AK37" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL37" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="7" t="s">
         <v>35</v>
       </c>
       <c r="C38">
@@ -5465,46 +5486,46 @@
       <c r="D38" t="s">
         <v>55</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="8">
         <v>45593</v>
       </c>
       <c r="F38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J38" t="s">
         <v>32</v>
       </c>
       <c r="K38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M38" t="s">
         <v>32</v>
       </c>
       <c r="N38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P38" t="s">
         <v>32</v>
       </c>
       <c r="Q38" t="s">
-        <v>97</v>
-      </c>
-      <c r="R38" s="3">
+        <v>94</v>
+      </c>
+      <c r="R38" s="1">
         <v>3</v>
       </c>
       <c r="S38" t="s">
@@ -5526,25 +5547,25 @@
         <v>32</v>
       </c>
       <c r="Y38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z38" t="s">
         <v>32</v>
       </c>
       <c r="AA38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF38" t="s">
         <v>32</v>
@@ -5553,7 +5574,7 @@
         <v>32</v>
       </c>
       <c r="AH38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI38" t="s">
         <v>32</v>
@@ -5561,15 +5582,15 @@
       <c r="AJ38" t="s">
         <v>32</v>
       </c>
-      <c r="AK38" s="11" t="s">
-        <v>97</v>
+      <c r="AK38" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="14" t="s">
         <v>82</v>
       </c>
       <c r="C39">
@@ -5578,11 +5599,11 @@
       <c r="D39" t="s">
         <v>56</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="8">
         <v>45542</v>
       </c>
       <c r="F39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -5591,40 +5612,40 @@
         <v>32</v>
       </c>
       <c r="I39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J39" t="s">
         <v>32</v>
       </c>
       <c r="K39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P39" t="s">
         <v>32</v>
       </c>
       <c r="Q39" t="s">
-        <v>97</v>
-      </c>
-      <c r="R39" s="3">
+        <v>94</v>
+      </c>
+      <c r="R39" s="1">
         <v>4</v>
       </c>
       <c r="S39" t="s">
         <v>32</v>
       </c>
       <c r="T39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U39" t="s">
         <v>32</v>
@@ -5639,28 +5660,28 @@
         <v>32</v>
       </c>
       <c r="Y39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG39" t="s">
         <v>32</v>
@@ -5674,15 +5695,15 @@
       <c r="AJ39" t="s">
         <v>32</v>
       </c>
-      <c r="AK39" s="11" t="s">
-        <v>97</v>
+      <c r="AK39" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL39" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="14" t="s">
         <v>70</v>
       </c>
       <c r="C40">
@@ -5691,17 +5712,17 @@
       <c r="D40" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="8">
         <v>45583</v>
       </c>
       <c r="F40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s">
         <v>32</v>
@@ -5710,7 +5731,7 @@
         <v>32</v>
       </c>
       <c r="K40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L40" t="s">
         <v>32</v>
@@ -5719,18 +5740,18 @@
         <v>32</v>
       </c>
       <c r="N40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q40" t="s">
-        <v>97</v>
-      </c>
-      <c r="R40" s="3">
+        <v>94</v>
+      </c>
+      <c r="R40" s="1">
         <v>4</v>
       </c>
       <c r="S40" t="s">
@@ -5743,7 +5764,7 @@
         <v>32</v>
       </c>
       <c r="V40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W40" t="s">
         <v>32</v>
@@ -5752,25 +5773,25 @@
         <v>32</v>
       </c>
       <c r="Y40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF40" t="s">
         <v>32</v>
@@ -5782,20 +5803,20 @@
         <v>32</v>
       </c>
       <c r="AI40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ40" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK40" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK40" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL40" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="7" t="s">
         <v>83</v>
       </c>
       <c r="C41">
@@ -5804,46 +5825,46 @@
       <c r="D41" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="8">
         <v>45592</v>
       </c>
       <c r="F41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J41" t="s">
         <v>32</v>
       </c>
       <c r="K41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q41" t="s">
-        <v>97</v>
-      </c>
-      <c r="R41" s="3">
+        <v>94</v>
+      </c>
+      <c r="R41" s="1">
         <v>1</v>
       </c>
       <c r="S41" t="s">
@@ -5853,7 +5874,7 @@
         <v>32</v>
       </c>
       <c r="U41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V41" t="s">
         <v>32</v>
@@ -5865,51 +5886,51 @@
         <v>32</v>
       </c>
       <c r="Y41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF41" t="s">
         <v>32</v>
       </c>
       <c r="AG41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH41" t="s">
         <v>32</v>
       </c>
       <c r="AI41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ41" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK41" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK41" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL41" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
-        <v>84</v>
+      <c r="B42" s="14" t="s">
+        <v>108</v>
       </c>
       <c r="C42">
         <v>18818</v>
@@ -5917,46 +5938,46 @@
       <c r="D42" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="8">
         <v>45408</v>
       </c>
       <c r="F42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H42" t="s">
         <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J42" t="s">
         <v>32</v>
       </c>
       <c r="K42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L42" t="s">
         <v>32</v>
       </c>
       <c r="M42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O42" t="s">
         <v>32</v>
       </c>
       <c r="P42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q42" t="s">
         <v>32</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="1">
         <v>6</v>
       </c>
       <c r="S42" t="s">
@@ -5975,28 +5996,28 @@
         <v>32</v>
       </c>
       <c r="X42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD42" t="s">
         <v>32</v>
       </c>
       <c r="AE42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF42" t="s">
         <v>32</v>
@@ -6008,21 +6029,21 @@
         <v>32</v>
       </c>
       <c r="AI42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ42" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK42" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK42" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL42" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
-        <v>85</v>
+      <c r="B43" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="C43">
         <v>18838</v>
@@ -6030,46 +6051,46 @@
       <c r="D43" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="8">
         <v>45592</v>
       </c>
       <c r="F43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
         <v>32</v>
       </c>
       <c r="H43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J43" t="s">
         <v>32</v>
       </c>
       <c r="K43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q43" t="s">
-        <v>97</v>
-      </c>
-      <c r="R43" s="3">
+        <v>94</v>
+      </c>
+      <c r="R43" s="1">
         <v>2</v>
       </c>
       <c r="S43" t="s">
@@ -6082,7 +6103,7 @@
         <v>32</v>
       </c>
       <c r="V43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W43" t="s">
         <v>32</v>
@@ -6091,25 +6112,25 @@
         <v>32</v>
       </c>
       <c r="Y43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF43" t="s">
         <v>32</v>
@@ -6118,23 +6139,23 @@
         <v>32</v>
       </c>
       <c r="AH43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI43" t="s">
         <v>32</v>
       </c>
       <c r="AJ43" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK43" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK43" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL43" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="14" t="s">
         <v>65</v>
       </c>
       <c r="C44">
@@ -6143,17 +6164,17 @@
       <c r="D44" t="s">
         <v>52</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="8">
         <v>45576</v>
       </c>
       <c r="F44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G44" t="s">
         <v>32</v>
       </c>
       <c r="H44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I44" t="s">
         <v>32</v>
@@ -6162,27 +6183,27 @@
         <v>32</v>
       </c>
       <c r="K44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L44" t="s">
         <v>32</v>
       </c>
       <c r="M44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q44" t="s">
-        <v>97</v>
-      </c>
-      <c r="R44" s="3">
+        <v>94</v>
+      </c>
+      <c r="R44" s="1">
         <v>5</v>
       </c>
       <c r="S44" t="s">
@@ -6195,7 +6216,7 @@
         <v>32</v>
       </c>
       <c r="V44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W44" t="s">
         <v>32</v>
@@ -6207,48 +6228,48 @@
         <v>32</v>
       </c>
       <c r="Z44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ44" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK44" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK44" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL44" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B45" s="16" t="s">
-        <v>65</v>
+      <c r="B45" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="C45">
         <v>19214</v>
@@ -6256,11 +6277,11 @@
       <c r="D45" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="8">
         <v>45408</v>
       </c>
       <c r="F45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -6269,33 +6290,33 @@
         <v>32</v>
       </c>
       <c r="I45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J45" t="s">
         <v>32</v>
       </c>
       <c r="K45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O45" t="s">
         <v>32</v>
       </c>
       <c r="P45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q45" t="s">
-        <v>97</v>
-      </c>
-      <c r="R45" s="3">
+        <v>94</v>
+      </c>
+      <c r="R45" s="1">
         <v>4</v>
       </c>
       <c r="S45" t="s">
@@ -6308,7 +6329,7 @@
         <v>32</v>
       </c>
       <c r="V45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W45" t="s">
         <v>32</v>
@@ -6317,25 +6338,25 @@
         <v>32</v>
       </c>
       <c r="Y45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF45" t="s">
         <v>32</v>
@@ -6344,24 +6365,24 @@
         <v>32</v>
       </c>
       <c r="AH45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI45" t="s">
         <v>32</v>
       </c>
       <c r="AJ45" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK45" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK45" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B46" s="9" t="s">
-        <v>87</v>
+      <c r="B46" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C46">
         <v>19215</v>
@@ -6369,17 +6390,17 @@
       <c r="D46" t="s">
         <v>52</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="8">
         <v>45576</v>
       </c>
       <c r="F46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I46" t="s">
         <v>32</v>
@@ -6388,34 +6409,34 @@
         <v>32</v>
       </c>
       <c r="K46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P46" t="s">
         <v>32</v>
       </c>
       <c r="Q46" t="s">
-        <v>97</v>
-      </c>
-      <c r="R46" s="3">
+        <v>94</v>
+      </c>
+      <c r="R46" s="1">
         <v>3</v>
       </c>
       <c r="S46" t="s">
         <v>32</v>
       </c>
       <c r="T46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U46" t="s">
         <v>32</v>
@@ -6433,48 +6454,48 @@
         <v>32</v>
       </c>
       <c r="Z46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG46" t="s">
         <v>32</v>
       </c>
       <c r="AH46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ46" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK46" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK46" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL46" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B47" s="16" t="s">
-        <v>86</v>
+      <c r="B47" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="C47">
         <v>19215</v>
@@ -6482,14 +6503,14 @@
       <c r="D47" t="s">
         <v>52</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="8">
         <v>45394</v>
       </c>
       <c r="F47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H47" t="s">
         <v>32</v>
@@ -6501,27 +6522,27 @@
         <v>32</v>
       </c>
       <c r="K47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L47" t="s">
         <v>32</v>
       </c>
       <c r="M47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O47" t="s">
         <v>32</v>
       </c>
       <c r="P47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q47" t="s">
-        <v>97</v>
-      </c>
-      <c r="R47" s="3">
+        <v>94</v>
+      </c>
+      <c r="R47" s="1">
         <v>6</v>
       </c>
       <c r="S47" t="s">
@@ -6534,7 +6555,7 @@
         <v>32</v>
       </c>
       <c r="V47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W47" t="s">
         <v>32</v>
@@ -6543,50 +6564,50 @@
         <v>32</v>
       </c>
       <c r="Y47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD47" t="s">
         <v>32</v>
       </c>
       <c r="AE47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG47" t="s">
         <v>32</v>
       </c>
       <c r="AH47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ47" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK47" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK47" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL47" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C48">
@@ -6595,11 +6616,11 @@
       <c r="D48" t="s">
         <v>50</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="8">
         <v>45581</v>
       </c>
       <c r="F48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
@@ -6608,33 +6629,33 @@
         <v>32</v>
       </c>
       <c r="I48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J48" t="s">
         <v>32</v>
       </c>
       <c r="K48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L48" t="s">
         <v>32</v>
       </c>
       <c r="M48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q48" t="s">
-        <v>97</v>
-      </c>
-      <c r="R48" s="3">
+        <v>94</v>
+      </c>
+      <c r="R48" s="1">
         <v>5</v>
       </c>
       <c r="S48" t="s">
@@ -6650,57 +6671,57 @@
         <v>32</v>
       </c>
       <c r="W48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI48" t="s">
         <v>32</v>
       </c>
       <c r="AJ48" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK48" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK48" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL48" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B49" s="16" t="s">
-        <v>88</v>
+      <c r="B49" s="14" t="s">
+        <v>86</v>
       </c>
       <c r="C49">
         <v>19458</v>
@@ -6708,17 +6729,17 @@
       <c r="D49" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="8">
         <v>45576</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G49" t="s">
         <v>32</v>
       </c>
       <c r="H49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I49" t="s">
         <v>32</v>
@@ -6727,16 +6748,16 @@
         <v>32</v>
       </c>
       <c r="K49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O49" t="s">
         <v>32</v>
@@ -6745,9 +6766,9 @@
         <v>32</v>
       </c>
       <c r="Q49" t="s">
-        <v>97</v>
-      </c>
-      <c r="R49" s="3">
+        <v>94</v>
+      </c>
+      <c r="R49" s="1">
         <v>5</v>
       </c>
       <c r="S49" t="s">
@@ -6769,25 +6790,25 @@
         <v>32</v>
       </c>
       <c r="Y49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF49" t="s">
         <v>32</v>
@@ -6799,21 +6820,21 @@
         <v>32</v>
       </c>
       <c r="AI49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ49" t="s">
         <v>32</v>
       </c>
-      <c r="AK49" s="11" t="s">
-        <v>97</v>
+      <c r="AK49" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B50" s="16" t="s">
-        <v>89</v>
+      <c r="B50" s="14" t="s">
+        <v>87</v>
       </c>
       <c r="C50">
         <v>20051</v>
@@ -6821,26 +6842,26 @@
       <c r="D50" t="s">
         <v>50</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="8">
         <v>45578</v>
       </c>
       <c r="F50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G50" t="s">
         <v>32</v>
       </c>
       <c r="H50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J50" t="s">
         <v>32</v>
       </c>
       <c r="K50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L50" t="s">
         <v>32</v>
@@ -6849,18 +6870,18 @@
         <v>32</v>
       </c>
       <c r="N50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q50" t="s">
-        <v>97</v>
-      </c>
-      <c r="R50" s="3">
+        <v>94</v>
+      </c>
+      <c r="R50" s="1">
         <v>4</v>
       </c>
       <c r="S50" t="s">
@@ -6882,31 +6903,31 @@
         <v>32</v>
       </c>
       <c r="Y50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF50" t="s">
         <v>32</v>
       </c>
       <c r="AG50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH50" t="s">
         <v>32</v>
@@ -6917,16 +6938,16 @@
       <c r="AJ50" t="s">
         <v>32</v>
       </c>
-      <c r="AK50" s="11" t="s">
-        <v>97</v>
+      <c r="AK50" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL50" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B51" s="9" t="s">
-        <v>90</v>
+      <c r="B51" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C51">
         <v>20492</v>
@@ -6934,46 +6955,46 @@
       <c r="D51" t="s">
         <v>52</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="8">
         <v>45583</v>
       </c>
       <c r="F51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J51" t="s">
         <v>32</v>
       </c>
       <c r="K51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q51" t="s">
-        <v>97</v>
-      </c>
-      <c r="R51" s="3">
+        <v>94</v>
+      </c>
+      <c r="R51" s="1">
         <v>1</v>
       </c>
       <c r="S51" t="s">
@@ -6986,7 +7007,7 @@
         <v>32</v>
       </c>
       <c r="V51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W51" t="s">
         <v>32</v>
@@ -6998,22 +7019,22 @@
         <v>32</v>
       </c>
       <c r="Z51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF51" t="s">
         <v>32</v>
@@ -7022,24 +7043,24 @@
         <v>32</v>
       </c>
       <c r="AH51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ51" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK51" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK51" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL51" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="52" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B52" s="16" t="s">
-        <v>90</v>
+      <c r="B52" s="14" t="s">
+        <v>110</v>
       </c>
       <c r="C52">
         <v>20492</v>
@@ -7047,17 +7068,17 @@
       <c r="D52" t="s">
         <v>52</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="8">
         <v>45408</v>
       </c>
       <c r="F52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I52" t="s">
         <v>32</v>
@@ -7066,27 +7087,27 @@
         <v>32</v>
       </c>
       <c r="K52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L52" t="s">
         <v>32</v>
       </c>
       <c r="M52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q52" t="s">
-        <v>97</v>
-      </c>
-      <c r="R52" s="3">
+        <v>94</v>
+      </c>
+      <c r="R52" s="1">
         <v>4</v>
       </c>
       <c r="S52" t="s">
@@ -7105,28 +7126,28 @@
         <v>32</v>
       </c>
       <c r="X52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF52" t="s">
         <v>32</v>
@@ -7135,24 +7156,24 @@
         <v>32</v>
       </c>
       <c r="AH52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ52" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK52" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK52" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="53" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B53" s="9" t="s">
-        <v>98</v>
+      <c r="B53" s="7" t="s">
+        <v>95</v>
       </c>
       <c r="C53">
         <v>20673</v>
@@ -7160,17 +7181,17 @@
       <c r="D53" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="10">
+      <c r="E53" s="8">
         <v>45584</v>
       </c>
       <c r="F53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s">
         <v>32</v>
@@ -7179,27 +7200,27 @@
         <v>32</v>
       </c>
       <c r="K53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O53" t="s">
         <v>32</v>
       </c>
       <c r="P53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q53" t="s">
-        <v>97</v>
-      </c>
-      <c r="R53" s="3">
+        <v>94</v>
+      </c>
+      <c r="R53" s="1">
         <v>3</v>
       </c>
       <c r="S53" t="s">
@@ -7212,7 +7233,7 @@
         <v>32</v>
       </c>
       <c r="V53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W53" t="s">
         <v>32</v>
@@ -7224,22 +7245,22 @@
         <v>32</v>
       </c>
       <c r="Z53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF53" t="s">
         <v>32</v>
@@ -7251,21 +7272,21 @@
         <v>32</v>
       </c>
       <c r="AI53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ53" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK53" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK53" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="54" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="s">
-        <v>91</v>
+      <c r="B54" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="C54">
         <v>20796</v>
@@ -7273,11 +7294,11 @@
       <c r="D54" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="8">
         <v>45598</v>
       </c>
       <c r="F54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G54" t="s">
         <v>32</v>
@@ -7286,7 +7307,7 @@
         <v>32</v>
       </c>
       <c r="I54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J54" t="s">
         <v>32</v>
@@ -7301,18 +7322,18 @@
         <v>32</v>
       </c>
       <c r="N54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O54" t="s">
         <v>32</v>
       </c>
       <c r="P54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q54" t="s">
-        <v>97</v>
-      </c>
-      <c r="R54" s="3">
+        <v>94</v>
+      </c>
+      <c r="R54" s="1">
         <v>7</v>
       </c>
       <c r="S54" t="s">
@@ -7334,25 +7355,25 @@
         <v>32</v>
       </c>
       <c r="Y54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z54" t="s">
         <v>32</v>
       </c>
       <c r="AA54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF54" t="s">
         <v>32</v>
@@ -7364,21 +7385,21 @@
         <v>32</v>
       </c>
       <c r="AI54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ54" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK54" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK54" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B55" s="9" t="s">
-        <v>93</v>
+      <c r="B55" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="C55">
         <v>20884</v>
@@ -7386,17 +7407,17 @@
       <c r="D55" t="s">
         <v>52</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E55" s="8">
         <v>45583</v>
       </c>
       <c r="F55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I55" t="s">
         <v>32</v>
@@ -7405,27 +7426,27 @@
         <v>32</v>
       </c>
       <c r="K55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O55" t="s">
         <v>32</v>
       </c>
       <c r="P55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q55" t="s">
-        <v>97</v>
-      </c>
-      <c r="R55" s="3">
+        <v>94</v>
+      </c>
+      <c r="R55" s="1">
         <v>3</v>
       </c>
       <c r="S55" t="s">
@@ -7438,7 +7459,7 @@
         <v>32</v>
       </c>
       <c r="V55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W55" t="s">
         <v>32</v>
@@ -7447,51 +7468,51 @@
         <v>32</v>
       </c>
       <c r="Y55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ55" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK55" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK55" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL55" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="56" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B56" s="16" t="s">
-        <v>92</v>
+      <c r="B56" s="14" t="s">
+        <v>111</v>
       </c>
       <c r="C56">
         <v>20884</v>
@@ -7499,14 +7520,14 @@
       <c r="D56" t="s">
         <v>52</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="8">
         <v>45394</v>
       </c>
       <c r="F56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H56" t="s">
         <v>32</v>
@@ -7518,34 +7539,34 @@
         <v>32</v>
       </c>
       <c r="K56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L56" t="s">
         <v>32</v>
       </c>
       <c r="M56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O56" t="s">
         <v>32</v>
       </c>
       <c r="P56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q56" t="s">
-        <v>97</v>
-      </c>
-      <c r="R56" s="3">
+        <v>94</v>
+      </c>
+      <c r="R56" s="1">
         <v>5</v>
       </c>
       <c r="S56" t="s">
         <v>32</v>
       </c>
       <c r="T56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="U56" t="s">
         <v>32</v>
@@ -7557,28 +7578,28 @@
         <v>32</v>
       </c>
       <c r="X56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF56" t="s">
         <v>32</v>
@@ -7587,24 +7608,24 @@
         <v>32</v>
       </c>
       <c r="AH56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI56" t="s">
         <v>32</v>
       </c>
       <c r="AJ56" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK56" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK56" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL56" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="57" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B57" s="16" t="s">
-        <v>65</v>
+      <c r="B57" s="14" t="s">
+        <v>112</v>
       </c>
       <c r="C57">
         <v>20975</v>
@@ -7612,7 +7633,7 @@
       <c r="D57" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="10">
+      <c r="E57" s="8">
         <v>45408</v>
       </c>
       <c r="F57" t="s">
@@ -7622,36 +7643,36 @@
         <v>32</v>
       </c>
       <c r="H57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J57" t="s">
         <v>32</v>
       </c>
       <c r="K57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O57" t="s">
         <v>32</v>
       </c>
       <c r="P57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q57" t="s">
-        <v>97</v>
-      </c>
-      <c r="R57" s="3">
+        <v>94</v>
+      </c>
+      <c r="R57" s="1">
         <v>4</v>
       </c>
       <c r="S57" t="s">
@@ -7661,63 +7682,63 @@
         <v>32</v>
       </c>
       <c r="U57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W57" t="s">
         <v>32</v>
       </c>
       <c r="X57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD57" t="s">
         <v>32</v>
       </c>
       <c r="AE57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF57" t="s">
         <v>32</v>
       </c>
       <c r="AG57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI57" t="s">
         <v>32</v>
       </c>
       <c r="AJ57" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK57" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK57" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL57" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B58" s="16" t="s">
-        <v>107</v>
+      <c r="B58" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="C58">
         <v>20976</v>
@@ -7725,17 +7746,17 @@
       <c r="D58" t="s">
         <v>56</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="8">
         <v>45542</v>
       </c>
       <c r="F58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s">
         <v>32</v>
@@ -7744,7 +7765,7 @@
         <v>32</v>
       </c>
       <c r="K58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L58" t="s">
         <v>32</v>
@@ -7753,7 +7774,7 @@
         <v>32</v>
       </c>
       <c r="N58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O58" t="s">
         <v>32</v>
@@ -7762,9 +7783,9 @@
         <v>32</v>
       </c>
       <c r="Q58" t="s">
-        <v>97</v>
-      </c>
-      <c r="R58" s="3">
+        <v>94</v>
+      </c>
+      <c r="R58" s="1">
         <v>7</v>
       </c>
       <c r="S58" t="s">
@@ -7777,34 +7798,34 @@
         <v>32</v>
       </c>
       <c r="V58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X58" t="s">
         <v>32</v>
       </c>
       <c r="Y58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF58" t="s">
         <v>32</v>
@@ -7813,24 +7834,24 @@
         <v>32</v>
       </c>
       <c r="AH58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI58" t="s">
         <v>32</v>
       </c>
       <c r="AJ58" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK58" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK58" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B59" s="16" t="s">
-        <v>99</v>
+      <c r="B59" s="14" t="s">
+        <v>96</v>
       </c>
       <c r="C59">
         <v>20977</v>
@@ -7838,11 +7859,11 @@
       <c r="D59" t="s">
         <v>54</v>
       </c>
-      <c r="E59" s="10">
+      <c r="E59" s="8">
         <v>45597</v>
       </c>
       <c r="F59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -7854,30 +7875,30 @@
         <v>32</v>
       </c>
       <c r="J59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L59" t="s">
         <v>32</v>
       </c>
       <c r="M59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O59" t="s">
         <v>32</v>
       </c>
       <c r="P59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q59" t="s">
         <v>32</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="1">
         <v>6</v>
       </c>
       <c r="S59" t="s">
@@ -7890,34 +7911,34 @@
         <v>32</v>
       </c>
       <c r="V59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="W59" t="s">
         <v>32</v>
       </c>
       <c r="X59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD59" t="s">
         <v>32</v>
       </c>
       <c r="AE59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF59" t="s">
         <v>32</v>
@@ -7929,21 +7950,21 @@
         <v>32</v>
       </c>
       <c r="AI59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ59" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK59" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK59" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL59" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="60" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B60" s="16" t="s">
-        <v>100</v>
+      <c r="B60" s="14" t="s">
+        <v>97</v>
       </c>
       <c r="C60">
         <v>20978</v>
@@ -7951,26 +7972,26 @@
       <c r="D60" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="8">
         <v>45612</v>
       </c>
       <c r="F60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H60" t="s">
         <v>32</v>
       </c>
       <c r="I60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J60" t="s">
         <v>32</v>
       </c>
       <c r="K60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L60" t="s">
         <v>32</v>
@@ -7979,18 +8000,18 @@
         <v>32</v>
       </c>
       <c r="N60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q60" t="s">
-        <v>97</v>
-      </c>
-      <c r="R60" s="3">
+        <v>94</v>
+      </c>
+      <c r="R60" s="1">
         <v>6</v>
       </c>
       <c r="S60" t="s">
@@ -8006,31 +8027,31 @@
         <v>32</v>
       </c>
       <c r="W60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="X60" t="s">
         <v>32</v>
       </c>
       <c r="Y60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AE60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF60" t="s">
         <v>32</v>
@@ -8042,134 +8063,134 @@
         <v>32</v>
       </c>
       <c r="AI60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AJ60" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK60" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK60" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL60" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B61" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="C61" s="18">
+      <c r="B61" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="16">
         <v>20979</v>
       </c>
-      <c r="D61" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="E61" s="19">
+      <c r="D61" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E61" s="17">
         <v>45650</v>
       </c>
-      <c r="F61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="I61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="L61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="N61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="O61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="P61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="R61" s="20">
+      <c r="F61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="J61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="M61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="O61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="R61" s="18">
         <v>11</v>
       </c>
-      <c r="S61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="T61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="U61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="V61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="W61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="X61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH61" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ61" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK61" s="21" t="s">
-        <v>97</v>
+      <c r="S61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="T61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="U61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="V61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="W61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="X61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH61" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ61" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK61" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="AL61" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B62" s="9" t="s">
-        <v>102</v>
+      <c r="B62" s="7" t="s">
+        <v>98</v>
       </c>
       <c r="C62">
         <v>20980</v>
@@ -8177,46 +8198,46 @@
       <c r="D62" t="s">
         <v>53</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="8">
         <v>45549</v>
       </c>
       <c r="F62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J62" t="s">
         <v>32</v>
       </c>
       <c r="K62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L62" t="s">
         <v>32</v>
       </c>
       <c r="M62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q62" t="s">
-        <v>97</v>
-      </c>
-      <c r="R62" s="3">
+        <v>94</v>
+      </c>
+      <c r="R62" s="1">
         <v>3</v>
       </c>
       <c r="S62" t="s">
@@ -8226,7 +8247,7 @@
         <v>32</v>
       </c>
       <c r="U62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="V62" t="s">
         <v>32</v>
@@ -8235,54 +8256,54 @@
         <v>32</v>
       </c>
       <c r="X62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD62" t="s">
         <v>32</v>
       </c>
       <c r="AE62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AG62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI62" t="s">
         <v>32</v>
       </c>
       <c r="AJ62" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK62" s="11" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="AK62" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B63" s="9" t="s">
-        <v>103</v>
+      <c r="B63" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C63">
         <v>20981</v>
@@ -8290,46 +8311,46 @@
       <c r="D63" t="s">
         <v>53</v>
       </c>
-      <c r="E63" s="10">
+      <c r="E63" s="8">
         <v>45556</v>
       </c>
       <c r="F63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O63" t="s">
         <v>32</v>
       </c>
       <c r="P63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q63" t="s">
-        <v>97</v>
-      </c>
-      <c r="R63" s="3">
+        <v>94</v>
+      </c>
+      <c r="R63" s="1">
         <v>1</v>
       </c>
       <c r="S63" t="s">
@@ -8348,28 +8369,28 @@
         <v>32</v>
       </c>
       <c r="X63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD63" t="s">
         <v>32</v>
       </c>
       <c r="AE63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF63" t="s">
         <v>32</v>
@@ -8386,16 +8407,16 @@
       <c r="AJ63" t="s">
         <v>32</v>
       </c>
-      <c r="AK63" s="11" t="s">
-        <v>97</v>
+      <c r="AK63" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="64" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B64" s="9" t="s">
-        <v>104</v>
+      <c r="B64" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C64">
         <v>20982</v>
@@ -8403,46 +8424,46 @@
       <c r="D64" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="8">
         <v>45557</v>
       </c>
       <c r="F64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G64" t="s">
         <v>32</v>
       </c>
       <c r="H64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J64" t="s">
         <v>32</v>
       </c>
       <c r="K64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="L64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="O64" t="s">
         <v>32</v>
       </c>
       <c r="P64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q64" t="s">
-        <v>97</v>
-      </c>
-      <c r="R64" s="3">
+        <v>94</v>
+      </c>
+      <c r="R64" s="1">
         <v>3</v>
       </c>
       <c r="S64" t="s">
@@ -8461,37 +8482,37 @@
         <v>32</v>
       </c>
       <c r="X64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Y64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Z64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AB64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AC64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AD64" t="s">
         <v>32</v>
       </c>
       <c r="AE64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AF64" t="s">
         <v>32</v>
       </c>
       <c r="AG64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AH64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AI64" t="s">
         <v>32</v>
@@ -8499,124 +8520,129 @@
       <c r="AJ64" t="s">
         <v>32</v>
       </c>
-      <c r="AK64" s="11" t="s">
-        <v>97</v>
+      <c r="AK64" s="9" t="s">
+        <v>94</v>
       </c>
       <c r="AL64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="65" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C65" s="12">
+      <c r="B65" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="10">
         <v>20983</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E65" s="11">
         <v>45602</v>
       </c>
-      <c r="F65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="L65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="M65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="N65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="O65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="P65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="R65" s="22">
+      <c r="F65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="R65" s="20">
         <v>6</v>
       </c>
-      <c r="S65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="T65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="U65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="V65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="W65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="X65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AG65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH65" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ65" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK65" s="14" t="s">
-        <v>97</v>
+      <c r="S65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="T65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="U65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="V65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="W65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="X65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AB65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AC65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH65" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ65" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AK65" s="12" t="s">
+        <v>94</v>
       </c>
       <c r="AL65" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="2:38" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
